--- a/Vtiger/src/test/java/commanData/product.xlsx
+++ b/Vtiger/src/test/java/commanData/product.xlsx
@@ -4,22 +4,29 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15375" windowHeight="6480" activeTab="1"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="20730" windowHeight="11760" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Prod" sheetId="1" r:id="rId1"/>
     <sheet name="Org" sheetId="2" r:id="rId2"/>
-    <sheet name="Purchase" sheetId="3" r:id="rId3"/>
+    <sheet name="Contact" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
+    <sheet name="Vendors" sheetId="5" r:id="rId5"/>
+    <sheet name="Opportunities" sheetId="6" r:id="rId6"/>
+    <sheet name="Products" sheetId="7" r:id="rId7"/>
+    <sheet name="PurchaseOrder" sheetId="8" r:id="rId8"/>
+    <sheet name="Invoice" sheetId="9" r:id="rId9"/>
+    <sheet name="Quotes" sheetId="10" r:id="rId10"/>
+    <sheet name="SalesOrder" sheetId="11" r:id="rId11"/>
+    <sheet name="Leads" sheetId="12" r:id="rId12"/>
+    <sheet name="Sheet2" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:K20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="256">
   <si>
     <t>Product_Id</t>
   </si>
@@ -171,6 +178,60 @@
     <t>Billing_address</t>
   </si>
   <si>
+    <t>Org_125</t>
+  </si>
+  <si>
+    <t>www.org_125.com</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>Banking</t>
+  </si>
+  <si>
+    <t>Press</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>8524163480</t>
+  </si>
+  <si>
+    <t>org_125@mail.com</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>Bangaluru</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>MobileNo</t>
+  </si>
+  <si>
+    <t>F111</t>
+  </si>
+  <si>
+    <t>sham</t>
+  </si>
+  <si>
+    <t>Org_123</t>
+  </si>
+  <si>
+    <t>sham@mail.com</t>
+  </si>
+  <si>
+    <t>756641332</t>
+  </si>
+  <si>
     <t>www.org_123.com</t>
   </si>
   <si>
@@ -180,9 +241,6 @@
     <t>Analyst</t>
   </si>
   <si>
-    <t>User</t>
-  </si>
-  <si>
     <t>8524163478</t>
   </si>
   <si>
@@ -192,7 +250,7 @@
     <t>1000</t>
   </si>
   <si>
-    <t>Bangaluru</t>
+    <t>Org_124</t>
   </si>
   <si>
     <t>www.org_124.com</t>
@@ -216,25 +274,7 @@
     <t>20000</t>
   </si>
   <si>
-    <t>www.org_125.com</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>Banking</t>
-  </si>
-  <si>
-    <t>Press</t>
-  </si>
-  <si>
-    <t>8524163480</t>
-  </si>
-  <si>
-    <t>org_125@mail.com</t>
-  </si>
-  <si>
-    <t>10000</t>
+    <t>Org_126</t>
   </si>
   <si>
     <t>www.org_126.com</t>
@@ -366,109 +406,401 @@
     <t>5800000</t>
   </si>
   <si>
-    <t>Subject</t>
-  </si>
-  <si>
-    <t>Vendor Name</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Assigned_To</t>
-  </si>
-  <si>
-    <t>Billing_Address</t>
-  </si>
-  <si>
-    <r>
-      <t>Shipping</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Address</t>
-    </r>
-  </si>
-  <si>
-    <t>Item Name</t>
-  </si>
-  <si>
-    <t>Qty</t>
-  </si>
-  <si>
-    <t>List Price</t>
-  </si>
-  <si>
-    <t>po_12</t>
+    <t>F114</t>
+  </si>
+  <si>
+    <t>Alexa</t>
+  </si>
+  <si>
+    <t>alexa@mail.com</t>
+  </si>
+  <si>
+    <t>756641752</t>
+  </si>
+  <si>
+    <t>F115</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>john@mail.com</t>
+  </si>
+  <si>
+    <t>956638936</t>
+  </si>
+  <si>
+    <t>F116</t>
+  </si>
+  <si>
+    <t>smith</t>
+  </si>
+  <si>
+    <t>smith@mail.com</t>
+  </si>
+  <si>
+    <t>756641737</t>
+  </si>
+  <si>
+    <t>F117</t>
+  </si>
+  <si>
+    <t>Miller</t>
+  </si>
+  <si>
+    <t>miller@mail.com</t>
+  </si>
+  <si>
+    <t>796641338</t>
+  </si>
+  <si>
+    <t>F118</t>
+  </si>
+  <si>
+    <t>Anthony</t>
+  </si>
+  <si>
+    <t>anthony@mail.com</t>
+  </si>
+  <si>
+    <t>926641339</t>
+  </si>
+  <si>
+    <t>vendor02</t>
+  </si>
+  <si>
+    <t>vendor02@mil.com</t>
+  </si>
+  <si>
+    <t>5998741</t>
+  </si>
+  <si>
+    <t>www.vendor02.com</t>
+  </si>
+  <si>
+    <t>street02</t>
+  </si>
+  <si>
+    <t>city02</t>
+  </si>
+  <si>
+    <t>postalcode02</t>
+  </si>
+  <si>
+    <t>pobox02</t>
+  </si>
+  <si>
+    <t>state02</t>
+  </si>
+  <si>
+    <t>country02</t>
+  </si>
+  <si>
+    <t>vendor03</t>
+  </si>
+  <si>
+    <t>vendor03@mil.com</t>
+  </si>
+  <si>
+    <t>98574</t>
+  </si>
+  <si>
+    <t>www.vendor03.com</t>
+  </si>
+  <si>
+    <t>street03</t>
+  </si>
+  <si>
+    <t>city03</t>
+  </si>
+  <si>
+    <t>postalcode03</t>
+  </si>
+  <si>
+    <t>pobox03</t>
+  </si>
+  <si>
+    <t>state03</t>
+  </si>
+  <si>
+    <t>country03</t>
+  </si>
+  <si>
+    <t>F112</t>
+  </si>
+  <si>
+    <t>Ram</t>
+  </si>
+  <si>
+    <t>ram@mail.com</t>
+  </si>
+  <si>
+    <t>956641333</t>
+  </si>
+  <si>
+    <t>F113</t>
+  </si>
+  <si>
+    <t>Suresh</t>
+  </si>
+  <si>
+    <t>suresh@mail.com</t>
+  </si>
+  <si>
+    <t>756241334</t>
+  </si>
+  <si>
+    <t>product02</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>300-Sales-Software</t>
+  </si>
+  <si>
+    <t>opprt02</t>
+  </si>
+  <si>
+    <t>New Business</t>
+  </si>
+  <si>
+    <t>Existing Customer</t>
+  </si>
+  <si>
+    <t>Qualification</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>vendorName</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>street</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>postalcode</t>
+  </si>
+  <si>
+    <t>pobox</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>vendor01@mil.com</t>
+  </si>
+  <si>
+    <t>456278</t>
+  </si>
+  <si>
+    <t>www.vendor01.com</t>
+  </si>
+  <si>
+    <t>street01</t>
+  </si>
+  <si>
+    <t>city01</t>
+  </si>
+  <si>
+    <t>postalcode01</t>
+  </si>
+  <si>
+    <t>pobox01</t>
+  </si>
+  <si>
+    <t>state01</t>
+  </si>
+  <si>
+    <t>country01</t>
+  </si>
+  <si>
+    <t>opprtName</t>
+  </si>
+  <si>
+    <t>selectOrg</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>leadSource</t>
+  </si>
+  <si>
+    <t>salesStage</t>
+  </si>
+  <si>
+    <t>expectedCloseDate</t>
+  </si>
+  <si>
+    <t>opprt01</t>
+  </si>
+  <si>
+    <t>Existing Business</t>
+  </si>
+  <si>
+    <t>Cold Call</t>
+  </si>
+  <si>
+    <t>Prospecting</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>productName</t>
+  </si>
+  <si>
+    <t>productCategory</t>
+  </si>
+  <si>
+    <t>glAccount</t>
+  </si>
+  <si>
+    <t>product01</t>
+  </si>
+  <si>
+    <t>Hardware</t>
+  </si>
+  <si>
+    <t>301-Sales-Hardware</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>billinhAddress</t>
+  </si>
+  <si>
+    <t>shippingAddress</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>qty</t>
+  </si>
+  <si>
+    <t>billingAdrs01</t>
+  </si>
+  <si>
+    <t>shippingAdrs01</t>
+  </si>
+  <si>
+    <t>sub02</t>
+  </si>
+  <si>
+    <t>Approved</t>
+  </si>
+  <si>
+    <t>billingAdrs02</t>
+  </si>
+  <si>
+    <t>shippingAdrs02</t>
+  </si>
+  <si>
+    <t>contactName</t>
+  </si>
+  <si>
+    <t>orgName</t>
+  </si>
+  <si>
+    <t>subject01</t>
+  </si>
+  <si>
+    <t>BillinhAddress01</t>
+  </si>
+  <si>
+    <t>ShippingAddress01</t>
+  </si>
+  <si>
+    <t>QOt01</t>
+  </si>
+  <si>
+    <t>customerno</t>
+  </si>
+  <si>
+    <t>salesOrder01</t>
+  </si>
+  <si>
+    <t>cust1001</t>
+  </si>
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>leadsource</t>
+  </si>
+  <si>
+    <t>industry</t>
+  </si>
+  <si>
+    <t>annualrevenue</t>
+  </si>
+  <si>
+    <t>noofemployees</t>
+  </si>
+  <si>
+    <t>FN01</t>
+  </si>
+  <si>
+    <t>LN01</t>
+  </si>
+  <si>
+    <t>cmp01</t>
+  </si>
+  <si>
+    <t>550000</t>
+  </si>
+  <si>
+    <t>bvc</t>
+  </si>
+  <si>
+    <t>Org_12557</t>
+  </si>
+  <si>
+    <t>vendor012</t>
   </si>
   <si>
     <t>chethan</t>
   </si>
   <si>
-    <t>Delivered</t>
-  </si>
-  <si>
-    <t>Bangalore</t>
-  </si>
-  <si>
-    <t>Mangalore</t>
-  </si>
-  <si>
-    <t>car</t>
-  </si>
-  <si>
-    <t>po_13</t>
-  </si>
-  <si>
-    <t>bhethan</t>
-  </si>
-  <si>
-    <t>Created</t>
-  </si>
-  <si>
-    <t>Ban</t>
-  </si>
-  <si>
-    <t>Man</t>
-  </si>
-  <si>
     <t>laptop</t>
   </si>
   <si>
-    <t>10020</t>
-  </si>
-  <si>
-    <t>Org_1222</t>
-  </si>
-  <si>
-    <t>Org_12123</t>
-  </si>
-  <si>
-    <t>Org_12579</t>
+    <t>Chethan poojary</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -477,47 +809,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF545454"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -542,39 +844,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -587,6 +871,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -879,13 +1166,13 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
@@ -893,13 +1180,13 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D3" t="s">
@@ -907,13 +1194,13 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D4" t="s">
@@ -921,13 +1208,13 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D5" t="s">
@@ -935,13 +1222,13 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D6" t="s">
@@ -949,13 +1236,13 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D7" t="s">
@@ -963,13 +1250,13 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B8" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D8" t="s">
@@ -977,13 +1264,13 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B9" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D9" t="s">
@@ -991,13 +1278,13 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D10" t="s">
@@ -1005,13 +1292,13 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B11" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D11" t="s">
@@ -1023,12 +1310,229 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="3" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G1" t="s">
+        <v>222</v>
+      </c>
+      <c r="H1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G2" t="s">
+        <v>254</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1076,109 +1580,41 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="9" t="s">
-        <v>137</v>
+      <c r="A2" t="s">
+        <v>251</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>51</v>
+      </c>
+      <c r="C2" t="s">
+        <v>52</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="G2" t="s">
+        <v>56</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="I2" t="s">
+        <v>58</v>
       </c>
       <c r="J2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="D3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="J4" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="H2" r:id="rId4"/>
-    <hyperlink ref="H3" r:id="rId5"/>
-    <hyperlink ref="H4" r:id="rId6"/>
+    <hyperlink ref="H2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1186,401 +1622,951 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="30">
-      <c r="A1" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="A2" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>53</v>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="A3" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="B6" s="1"/>
-      <c r="C6" s="5"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="B7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="B8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="B9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="B10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="B11" s="1"/>
-      <c r="H11" s="1"/>
+        <v>67</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C12:I17"/>
+  <dimension ref="A5:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:K17"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="12" spans="3:9">
-      <c r="C12" s="1"/>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="3:9">
-      <c r="C13" s="1"/>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="3:9">
-      <c r="C14" s="1"/>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="3:9">
-      <c r="C15" s="1"/>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="3:9">
-      <c r="C16" s="1"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="3:9">
-      <c r="C17" s="1"/>
-      <c r="I17" s="1"/>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" t="s">
+        <v>87</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" t="s">
+        <v>95</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I9" t="s">
+        <v>97</v>
+      </c>
+      <c r="J9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" t="s">
+        <v>103</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I10" t="s">
+        <v>105</v>
+      </c>
+      <c r="J10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" t="s">
+        <v>109</v>
+      </c>
+      <c r="E11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" t="s">
+        <v>110</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I11" t="s">
+        <v>81</v>
+      </c>
+      <c r="J11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" t="s">
+        <v>114</v>
+      </c>
+      <c r="E12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F12" t="s">
+        <v>102</v>
+      </c>
+      <c r="G12" t="s">
+        <v>116</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I12" t="s">
+        <v>118</v>
+      </c>
+      <c r="J12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" t="s">
+        <v>121</v>
+      </c>
+      <c r="D13" t="s">
+        <v>122</v>
+      </c>
+      <c r="E13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" t="s">
+        <v>102</v>
+      </c>
+      <c r="G13" t="s">
+        <v>123</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I13" t="s">
+        <v>125</v>
+      </c>
+      <c r="J13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>126</v>
+      </c>
+      <c r="B15" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>130</v>
+      </c>
+      <c r="B16" t="s">
+        <v>131</v>
+      </c>
+      <c r="C16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>134</v>
+      </c>
+      <c r="B17" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E17" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>142</v>
+      </c>
+      <c r="B19" t="s">
+        <v>143</v>
+      </c>
+      <c r="C19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E19" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>146</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C22" t="s">
+        <v>148</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E22" t="s">
+        <v>150</v>
+      </c>
+      <c r="F22" t="s">
+        <v>151</v>
+      </c>
+      <c r="G22" t="s">
+        <v>152</v>
+      </c>
+      <c r="H22" t="s">
+        <v>153</v>
+      </c>
+      <c r="I22" t="s">
+        <v>154</v>
+      </c>
+      <c r="J22" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>156</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C23" t="s">
+        <v>158</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E23" t="s">
+        <v>160</v>
+      </c>
+      <c r="F23" t="s">
+        <v>161</v>
+      </c>
+      <c r="G23" t="s">
+        <v>162</v>
+      </c>
+      <c r="H23" t="s">
+        <v>163</v>
+      </c>
+      <c r="I23" t="s">
+        <v>164</v>
+      </c>
+      <c r="J23" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" t="s">
+        <v>166</v>
+      </c>
+      <c r="B26" t="s">
+        <v>167</v>
+      </c>
+      <c r="C26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E26" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
+        <v>170</v>
+      </c>
+      <c r="B27" t="s">
+        <v>171</v>
+      </c>
+      <c r="C27" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E27" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" t="s">
+        <v>174</v>
+      </c>
+      <c r="B32" t="s">
+        <v>175</v>
+      </c>
+      <c r="C32" t="s">
+        <v>146</v>
+      </c>
+      <c r="D32" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>177</v>
+      </c>
+      <c r="B35" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" t="s">
+        <v>178</v>
+      </c>
+      <c r="D35" t="s">
+        <v>179</v>
+      </c>
+      <c r="E35" t="s">
+        <v>180</v>
+      </c>
+      <c r="F35" t="s">
+        <v>181</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <hyperlinks>
+    <hyperlink ref="B8" r:id="rId1"/>
+    <hyperlink ref="B9" r:id="rId2"/>
+    <hyperlink ref="B10" r:id="rId3"/>
+    <hyperlink ref="B11" r:id="rId4"/>
+    <hyperlink ref="B12" r:id="rId5"/>
+    <hyperlink ref="B13" r:id="rId6"/>
+    <hyperlink ref="H8" r:id="rId7"/>
+    <hyperlink ref="H9" r:id="rId8"/>
+    <hyperlink ref="H10" r:id="rId9"/>
+    <hyperlink ref="H11" r:id="rId10"/>
+    <hyperlink ref="H12" r:id="rId11"/>
+    <hyperlink ref="H13" r:id="rId12"/>
+    <hyperlink ref="D15" r:id="rId13"/>
+    <hyperlink ref="D16" r:id="rId14"/>
+    <hyperlink ref="D17" r:id="rId15" tooltip="mailto:smith@mail.com"/>
+    <hyperlink ref="D18" r:id="rId16" tooltip="mailto:miller@mail.com"/>
+    <hyperlink ref="D19" r:id="rId17" tooltip="mailto:anthony@mail.com"/>
+    <hyperlink ref="B7" r:id="rId18"/>
+    <hyperlink ref="H7" r:id="rId19"/>
+    <hyperlink ref="B5" r:id="rId20"/>
+    <hyperlink ref="H5" r:id="rId21"/>
+    <hyperlink ref="B6" r:id="rId22"/>
+    <hyperlink ref="H6" r:id="rId23"/>
+    <hyperlink ref="B22" r:id="rId24"/>
+    <hyperlink ref="B23" r:id="rId25"/>
+    <hyperlink ref="D22" r:id="rId26"/>
+    <hyperlink ref="D23" r:id="rId27"/>
+    <hyperlink ref="D26" r:id="rId28" tooltip="mailto:ram@mail.com"/>
+    <hyperlink ref="D27" r:id="rId29" tooltip="mailto:suresh@mail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="B1" s="1" t="s">
-        <v>72</v>
+      <c r="A1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" t="s">
+        <v>183</v>
       </c>
       <c r="C1" t="s">
-        <v>73</v>
+        <v>184</v>
       </c>
       <c r="D1" t="s">
-        <v>74</v>
+        <v>185</v>
       </c>
       <c r="E1" t="s">
-        <v>75</v>
+        <v>186</v>
       </c>
       <c r="F1" t="s">
-        <v>53</v>
+        <v>187</v>
       </c>
       <c r="G1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>77</v>
+        <v>188</v>
+      </c>
+      <c r="H1" t="s">
+        <v>189</v>
       </c>
       <c r="I1" t="s">
-        <v>78</v>
+        <v>190</v>
       </c>
       <c r="J1" t="s">
-        <v>57</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>252</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2" t="s">
-        <v>82</v>
+        <v>192</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>195</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>196</v>
       </c>
       <c r="G2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>85</v>
+        <v>197</v>
+      </c>
+      <c r="H2" t="s">
+        <v>198</v>
       </c>
       <c r="I2" t="s">
-        <v>86</v>
+        <v>199</v>
       </c>
       <c r="J2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G3" t="s">
-        <v>92</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="I3" t="s">
-        <v>94</v>
-      </c>
-      <c r="J3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G4" t="s">
-        <v>99</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="I4" t="s">
-        <v>64</v>
-      </c>
-      <c r="J4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E5" t="s">
-        <v>104</v>
-      </c>
-      <c r="F5" t="s">
-        <v>91</v>
-      </c>
-      <c r="G5" t="s">
-        <v>105</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I5" t="s">
-        <v>107</v>
-      </c>
-      <c r="J5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D6" t="s">
-        <v>111</v>
-      </c>
-      <c r="E6" t="s">
-        <v>90</v>
-      </c>
-      <c r="F6" t="s">
-        <v>91</v>
-      </c>
-      <c r="G6" t="s">
-        <v>112</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="I6" t="s">
-        <v>114</v>
-      </c>
-      <c r="J6" t="s">
-        <v>57</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
-    <hyperlink ref="B3" r:id="rId3"/>
-    <hyperlink ref="B4" r:id="rId4"/>
-    <hyperlink ref="B5" r:id="rId5"/>
-    <hyperlink ref="B6" r:id="rId6"/>
-    <hyperlink ref="H1" r:id="rId7"/>
-    <hyperlink ref="H2" r:id="rId8"/>
-    <hyperlink ref="H3" r:id="rId9"/>
-    <hyperlink ref="H4" r:id="rId10"/>
-    <hyperlink ref="H5" r:id="rId11"/>
-    <hyperlink ref="H6" r:id="rId12"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1" t="s">
+        <v>222</v>
+      </c>
+      <c r="G1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1" t="s">
+        <v>222</v>
+      </c>
+      <c r="G1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>